--- a/biology/Médecine/Fascia_lata/Fascia_lata.xlsx
+++ b/biology/Médecine/Fascia_lata/Fascia_lata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia lata (ou aponévrose fémorale ou aponévrose crurale) est une gaine aponévrotique du membre inférieur recouvrant la face superficielle des muscles de la cuisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme fascia lata est quelquefois utilisé pour ne parler que de sa partie latérale très épaisse faisant partie du tractus ilio-tibial. Mais dans les nomenclatures anatomiques, le terme désigne l'ensemble de la gaine aponévrotique.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia lata englobe l’ensemble de la cuisse. 
 Son épaisseur varie selon les parties. Il est plus épais dans la partie supérieure et latérale de la cuisse, où il reçoit une expansion fibreuse du muscle grand glutéal, et où le muscle tenseur du fascia lata s'insère entre ses couches.
@@ -577,16 +593,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insertions supérieures
-Dans sa partie supérieure le fascia lata s'insère :
+          <t>Insertions supérieures</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans sa partie supérieure le fascia lata s'insère :
 à l'arrière, il est en continuité avec l'aponévrose glutéale,
 latéralement, sur la crête iliaque,
 à l'avant sur le ligament inguinal et sur la branche supérieure du pubis,
-médialement sur la branche inférieure du pubis, sur la branche de l'ischion, sur la tubérosité ischiatique et sur le bord inférieur du ligament sacro-tubéral.
-Insertions inférieures
-En bas le fascia lata est en continuité avec le fascia crural sauf au niveau de la patella où il s'insère sur sa base.
-Le fascia lata est attaché à tous les points saillants autour de l'articulation du genou : les condyles latéral et médial du fémur et latéral et médial du tibia, ainsi que la tête fibulaire.
-</t>
+médialement sur la branche inférieure du pubis, sur la branche de l'ischion, sur la tubérosité ischiatique et sur le bord inférieur du ligament sacro-tubéral.</t>
         </is>
       </c>
     </row>
@@ -611,10 +628,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Insertions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Insertions inférieures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En bas le fascia lata est en continuité avec le fascia crural sauf au niveau de la patella où il s'insère sur sa base.
+Le fascia lata est attaché à tous les points saillants autour de l'articulation du genou : les condyles latéral et médial du fémur et latéral et médial du tibia, ainsi que la tête fibulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fascia_lata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fascia_lata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia lata engaine l'ensemble de la cuisse et ses muscles.
 De sa face profonde naissent des cloisons qui englobent les différents muscles de la cuisse dont le muscle sartorius.
@@ -627,34 +684,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Fascia_lata</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fascia_lata</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis les années 1920, des fascia lata provenant de donneurs décédés sont utilisés en chirurgie reconstructive. 
-Il a été utilisé comme greffon pour les patients atteints de paralysie faciale. Le fascia lata offre des soutiens aux muscles qui composent le visage et ce soutien augmente la récupération des muscles du visage. Les chirurgiens utilisent le fascia lata comme une sorte d'écharpe faciale pour soutenir le visage paralysé et enroulent le fascia lata autour du centre de la lèvre inférieure, du coin de la bouche et du centre de la lèvre supérieure[1].
+Il a été utilisé comme greffon pour les patients atteints de paralysie faciale. Le fascia lata offre des soutiens aux muscles qui composent le visage et ce soutien augmente la récupération des muscles du visage. Les chirurgiens utilisent le fascia lata comme une sorte d'écharpe faciale pour soutenir le visage paralysé et enroulent le fascia lata autour du centre de la lèvre inférieure, du coin de la bouche et du centre de la lèvre supérieure.
 Une petite partie du fascia lata prélevée par une incision cutanée inférieure à un centimètre sur la face latérale inférieure de la cuisse est utilisée pour reconstruire le tympan lors d'une tympanoplastie.
 </t>
         </is>
